--- a/Расчёты/Расчёт посадки с натягом.xlsx
+++ b/Расчёты/Расчёт посадки с натягом.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\МГТУ\6 сем\ДетМаш Курсач\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\GitHub\reductor\reductor\Расчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAE1F44-F836-4167-BEB8-92013634E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F4CB2A-C0B6-4959-A234-A0FA057E52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{E5478BC1-EE0B-4EFC-A17C-29CF6589B284}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E5478BC1-EE0B-4EFC-A17C-29CF6589B284}"/>
   </bookViews>
   <sheets>
     <sheet name="Входной" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -260,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,13 +721,13 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +749,7 @@
         <v>0.41752640057126855</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -773,7 +771,7 @@
         <v>0.60665535537058524</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -795,7 +793,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -827,7 +825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -852,7 +850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -877,7 +875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -892,7 +890,7 @@
         <v>42.808724732461357</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -911,7 +909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -927,7 +925,7 @@
         <v>169992.29496311705</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -935,7 +933,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -950,7 +948,7 @@
         <v>17328.470434568506</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -958,7 +956,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -973,7 +971,7 @@
         <v>17.328470434568505</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="14.4">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1003,7 @@
         <v>1438.141376</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>1.2E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1052,13 +1050,13 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>6.838886141631737</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>9.9367295024075855</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +1179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>42.808724732461357</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>144170.68053833974</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1277,7 @@
         <v>14696.297710330249</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1287,7 +1285,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>14.696297710330249</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="14.4">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>1438.141376</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1342,7 +1340,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1350,7 +1348,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1357,7 @@
         <v>1.2E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1380,13 +1378,13 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>9.1684332753457429</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>23.107650144548721</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +1482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1532,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>39.359630911187999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>384310.19010619004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>39175.350673413865</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1630,7 +1628,7 @@
         <v>39.175350673413867</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="14.4">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>1438.141376</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1678,7 +1676,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>1.2E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1705,16 +1703,16 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1733,10 +1731,10 @@
       </c>
       <c r="H1">
         <f>2*1000*B6*B1/(PI()*B2^2*B5*B7)</f>
-        <v>23.119930187412127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>19.618912187604007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1755,10 +1753,10 @@
       </c>
       <c r="H2">
         <f>1000*H1*B2*(E1/B8+E2/B9)</f>
-        <v>41.990846102178168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>35.632232263848337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1777,10 +1775,10 @@
       </c>
       <c r="H3">
         <f>5.5*(B12+B13)</f>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1799,11 +1797,11 @@
       </c>
       <c r="H4">
         <f>H2+H3</f>
-        <v>50.790846102178165</v>
+        <v>48.83223226384834</v>
       </c>
       <c r="I4">
         <f>CEILING(H4,1)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>38</v>
@@ -1812,12 +1810,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1831,29 +1829,29 @@
       </c>
       <c r="H5">
         <f>E5*H2/H1</f>
-        <v>442.85714285714283</v>
+        <v>442.85714285714295</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6">
         <f>H5+H3</f>
-        <v>451.65714285714284</v>
+        <v>456.05714285714294</v>
       </c>
       <c r="I6">
         <f>FLOOR(H6,1)</f>
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>39</v>
@@ -1862,22 +1860,22 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
       <c r="H7">
         <f>(K6-H3)*H1/H2</f>
-        <v>77.193353151010697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>74.770737217598096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1909,10 +1907,10 @@
       </c>
       <c r="H9">
         <f>PI()*B2*B5*H7*B16</f>
-        <v>480169.9409070519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>469798.39749259822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1932,10 +1930,10 @@
       </c>
       <c r="H11">
         <f>H9/9.81</f>
-        <v>48946.986840678073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>47889.744902405524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1943,22 +1941,22 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
       </c>
       <c r="H13">
         <f>H11/1000</f>
-        <v>48.946986840678072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>47.889744902405525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.4">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +1988,7 @@
         <v>1438.141376</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1998,7 +1996,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>1.2E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
